--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_EQ组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -627,6 +627,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,12 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1092,7 +1092,7 @@
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1126,9 +1126,9 @@
       <c r="M2" s="14"/>
       <c r="N2" s="13"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
@@ -4854,28 +4854,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
@@ -5288,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:M4"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6129,36 +6129,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">

--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_EQ组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -228,11 +228,207 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>EQ组测试、捷豹组测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌主页的房源推荐单独管理功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP的心愿收藏列表和拨打记录添加房东联系电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌相关展示缓存策略优化处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了预约看房功能，时间弹出框的交互效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了租客WAP的APP下载界面，根据系统自动判定下载跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客WAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了租客PC和WAP的登录功能，只有在登录失败一定次数后才会显示验证码输入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优选品牌“喜欢”功能，无需登录也可以进行操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了品牌专区的品牌logo样式展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了房间详情页地点与地铁信息的距离显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客WAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据深圳地铁线变更，优化了地铁线相关的显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>找房相关模块，非上海城市去除了“单身公寓”的选项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了当租客密码就行修改或重置时，会短信通知用户的功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变了租客APP的用户登录功能，用手机号和验证码即可登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了房间详情页房源编号的显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了品牌评测的显示，使之与品牌上下线关联</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC/租客APP/租客WAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC/租客APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC/租客APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC/租客APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC/租客WAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP/租客PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS/租客PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了地图定位等图标的颜色显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了房间详情页的布局显示，以提升用户体验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了品牌主页的评测显示内容字数限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消了租客APP收藏房源需要登录的限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了房间详情页的楼层显示，使之更加合理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP/租客PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了房东PC登录页面中，点击房东加盟的城市跳转，使之更加合理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术优化-优化了kafka消息发送事务的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化租客验证码输错后的处理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了心愿菜单中波胆记录列表的显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了租客APP首页的UI界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通勤找房增加了公交、步行、骑行、驾车几种模式，精确了距离时间，使之更加合理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除了帐号管理中，更换手机号码需要输入登录密码的限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了封面图尺寸的显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了租客登录的流程，当密码输入错误一定次数后，会进行帐号锁定。重置密码即可解锁。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了品牌官方评测页的显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了房间详情页拨号后可以进行评价备注的功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>EQ组人员、捷豹组人员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组测试、捷豹组测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1000,14 +1196,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="20" customWidth="1"/>
     <col min="3" max="3" width="15" style="19" customWidth="1"/>
     <col min="4" max="4" width="25" style="19" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="19" customWidth="1"/>
@@ -1115,13 +1311,13 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>54</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="13"/>
@@ -1133,14 +1329,30 @@
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="13">
+        <v>42597</v>
+      </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14"/>
       <c r="K3" s="12"/>
@@ -1154,15 +1366,31 @@
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="13">
+        <v>42597</v>
+      </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14"/>
       <c r="K4" s="12"/>
@@ -1177,14 +1405,30 @@
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="13">
+        <v>42597</v>
+      </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14"/>
       <c r="K5" s="12"/>
@@ -1199,14 +1443,30 @@
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="13">
+        <v>42597</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14"/>
       <c r="K6" s="12"/>
@@ -1220,15 +1480,31 @@
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="13">
+        <v>42597</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="14"/>
       <c r="K7" s="12"/>
@@ -1242,15 +1518,31 @@
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="13">
+        <v>42597</v>
+      </c>
       <c r="I8" s="12"/>
       <c r="J8" s="14"/>
       <c r="K8" s="12"/>
@@ -1265,14 +1557,30 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="13">
+        <v>42597</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="14"/>
       <c r="K9" s="12"/>
@@ -1287,14 +1595,30 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="13">
+        <v>42597</v>
+      </c>
       <c r="I10" s="12"/>
       <c r="J10" s="14"/>
       <c r="K10" s="12"/>
@@ -1309,14 +1633,30 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="13">
+        <v>42597</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14"/>
       <c r="K11" s="12"/>
@@ -1331,14 +1671,30 @@
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="13">
+        <v>42597</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="14"/>
       <c r="K12" s="12"/>
@@ -1353,14 +1709,30 @@
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="13">
+        <v>42597</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="14"/>
       <c r="K13" s="12"/>
@@ -1374,15 +1746,31 @@
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="13">
+        <v>42597</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="14"/>
       <c r="K14" s="12"/>
@@ -1396,15 +1784,31 @@
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A15" s="21">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="13">
+        <v>42597</v>
+      </c>
       <c r="I15" s="12"/>
       <c r="J15" s="14"/>
       <c r="K15" s="12"/>
@@ -1419,14 +1823,30 @@
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="13">
+        <v>42597</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="14"/>
       <c r="K16" s="12"/>
@@ -1441,14 +1861,30 @@
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="13">
+        <v>42597</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="14"/>
       <c r="K17" s="12"/>
@@ -1463,14 +1899,30 @@
       <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="13">
+        <v>42597</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="14"/>
       <c r="K18" s="12"/>
@@ -1485,14 +1937,30 @@
       <c r="T18" s="10"/>
     </row>
     <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="13">
+        <v>42597</v>
+      </c>
       <c r="I19" s="12"/>
       <c r="J19" s="14"/>
       <c r="K19" s="12"/>
@@ -1507,14 +1975,30 @@
       <c r="T19" s="10"/>
     </row>
     <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="13">
+        <v>42597</v>
+      </c>
       <c r="I20" s="12"/>
       <c r="J20" s="14"/>
       <c r="K20" s="12"/>
@@ -1529,14 +2013,30 @@
       <c r="T20" s="10"/>
     </row>
     <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="13">
+        <v>42597</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="14"/>
       <c r="K21" s="12"/>
@@ -1551,14 +2051,30 @@
       <c r="T21" s="10"/>
     </row>
     <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="13">
+        <v>42597</v>
+      </c>
       <c r="I22" s="12"/>
       <c r="J22" s="14"/>
       <c r="K22" s="12"/>
@@ -1572,15 +2088,31 @@
       <c r="S22" s="18"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A23" s="21">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="13">
+        <v>42597</v>
+      </c>
       <c r="I23" s="12"/>
       <c r="J23" s="14"/>
       <c r="K23" s="12"/>
@@ -1595,14 +2127,30 @@
       <c r="T23" s="10"/>
     </row>
     <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="A24" s="21">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="13">
+        <v>42597</v>
+      </c>
       <c r="I24" s="12"/>
       <c r="J24" s="14"/>
       <c r="K24" s="12"/>
@@ -1617,14 +2165,30 @@
       <c r="T24" s="10"/>
     </row>
     <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="13">
+        <v>42597</v>
+      </c>
       <c r="I25" s="15"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1639,14 +2203,30 @@
       <c r="T25" s="10"/>
     </row>
     <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="21">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="13">
+        <v>42597</v>
+      </c>
       <c r="I26" s="15"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1661,14 +2241,30 @@
       <c r="T26" s="10"/>
     </row>
     <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="5"/>
+      <c r="A27" s="21">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="13">
+        <v>42597</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -1681,15 +2277,31 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="5"/>
+    <row r="28" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="21">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="13">
+        <v>42597</v>
+      </c>
       <c r="I28" s="6"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -1702,15 +2314,31 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="5"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="21">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="13">
+        <v>42597</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -1724,14 +2352,30 @@
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="5"/>
+      <c r="A30" s="21">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="13">
+        <v>42597</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -1744,15 +2388,31 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="5"/>
+    <row r="31" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+      <c r="A31" s="21">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="13">
+        <v>42597</v>
+      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -1766,14 +2426,30 @@
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="5"/>
+      <c r="A32" s="21">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="13">
+        <v>42597</v>
+      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -1787,14 +2463,30 @@
       <c r="S32" s="4"/>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="21">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="13">
+        <v>42597</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="13">
+        <v>42597</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -5288,7 +5980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="124">
   <si>
     <t>No</t>
   </si>
@@ -300,10 +295,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>增加了当租客密码就行修改或重置时，会短信通知用户的功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>改变了租客APP的用户登录功能，用手机号和验证码即可登录</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -429,14 +420,90 @@
   </si>
   <si>
     <t>EQ组人员、捷豹组人员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉、吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了当租客密码进行修改或重置时，会短信通知用户的功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛冠宙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龙国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙义全</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -696,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,9 +810,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,39 +1257,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="15" style="19" customWidth="1"/>
-    <col min="4" max="4" width="25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="19" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="10" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="20" customWidth="1"/>
-    <col min="14" max="14" width="14.375" style="20" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="20" customWidth="1"/>
-    <col min="16" max="16" width="12" style="22" customWidth="1"/>
-    <col min="17" max="17" width="17" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="15" style="18" customWidth="1"/>
+    <col min="4" max="4" width="25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="19" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="10" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="19" customWidth="1"/>
+    <col min="16" max="16" width="12" style="21" customWidth="1"/>
+    <col min="17" max="17" width="17" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.75" style="19" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1284,11 +1351,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1311,7 +1378,7 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>54</v>
@@ -1322,14 +1389,14 @@
       <c r="M2" s="14"/>
       <c r="N2" s="13"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="18"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="17"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="21">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1339,7 +1406,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>50</v>
@@ -1354,20 +1421,32 @@
         <v>42597</v>
       </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="J3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="18"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1392,20 +1471,32 @@
         <v>42597</v>
       </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="18"/>
+      <c r="S4" s="17"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1415,7 +1506,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>50</v>
@@ -1430,20 +1521,32 @@
         <v>42597</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="18"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1468,20 +1571,32 @@
         <v>42597</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="18"/>
+      <c r="S6" s="17"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="33">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1506,20 +1621,32 @@
         <v>42597</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="18"/>
+      <c r="S7" s="17"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="33">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1529,7 +1656,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>50</v>
@@ -1544,20 +1671,32 @@
         <v>42597</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="18"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1567,7 +1706,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>50</v>
@@ -1582,20 +1721,32 @@
         <v>42597</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="18"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1620,20 +1771,32 @@
         <v>42597</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="18"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1658,20 +1821,32 @@
         <v>42597</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="18"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="21">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1681,7 +1856,7 @@
         <v>60</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>50</v>
@@ -1696,20 +1871,32 @@
         <v>42597</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="J12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="18"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="21">
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1719,7 +1906,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>50</v>
@@ -1734,30 +1921,42 @@
         <v>42597</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="J13" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="18"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A14" s="21">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="33">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>50</v>
@@ -1772,24 +1971,36 @@
         <v>42597</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="18"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A15" s="21">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="33">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>49</v>
@@ -1810,30 +2021,42 @@
         <v>42597</v>
       </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+      <c r="J15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="18"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="21">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>50</v>
@@ -1848,30 +2071,42 @@
         <v>42597</v>
       </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
+      <c r="J16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="18"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>50</v>
@@ -1886,24 +2121,36 @@
         <v>42597</v>
       </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="18"/>
+      <c r="S17" s="17"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="21">
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>60</v>
@@ -1924,24 +2171,36 @@
         <v>42597</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
+      <c r="J18" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="18"/>
+      <c r="S18" s="17"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="21">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>60</v>
@@ -1962,24 +2221,36 @@
         <v>42597</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="18"/>
+      <c r="S19" s="17"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="21">
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A20" s="20">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>60</v>
@@ -2000,24 +2271,36 @@
         <v>42597</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
+      <c r="J20" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="18"/>
+      <c r="S20" s="17"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="21">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A21" s="20">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>60</v>
@@ -2038,30 +2321,42 @@
         <v>42597</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
+      <c r="J21" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="18"/>
+      <c r="S21" s="17"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="21">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A22" s="20">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>50</v>
@@ -2076,30 +2371,42 @@
         <v>42597</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
+      <c r="J22" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N22" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="18"/>
+      <c r="S22" s="17"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A23" s="21">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="33">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>50</v>
@@ -2114,30 +2421,42 @@
         <v>42597</v>
       </c>
       <c r="I23" s="12"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
+      <c r="J23" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="18"/>
+      <c r="S23" s="17"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="21">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>50</v>
@@ -2152,30 +2471,42 @@
         <v>42597</v>
       </c>
       <c r="I24" s="12"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
+      <c r="J24" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N24" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="18"/>
+      <c r="S24" s="17"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="21">
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>50</v>
@@ -2190,30 +2521,42 @@
         <v>42597</v>
       </c>
       <c r="I25" s="15"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
+      <c r="J25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N25" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="17"/>
+      <c r="S25" s="16"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="21">
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="A26" s="20">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>50</v>
@@ -2229,29 +2572,37 @@
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="K26" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
+      <c r="M26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N26" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="17"/>
+      <c r="S26" s="16"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="21">
+    <row r="27" spans="1:20" ht="16.5">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>50</v>
@@ -2266,29 +2617,41 @@
         <v>42597</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="4"/>
+      <c r="J27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N27" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="21">
+    <row r="28" spans="1:20" ht="31.5" customHeight="1">
+      <c r="A28" s="20">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>50</v>
@@ -2303,29 +2666,41 @@
         <v>42597</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="4"/>
+      <c r="J28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N28" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="21">
+    <row r="29" spans="1:20" ht="30" customHeight="1">
+      <c r="A29" s="20">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>50</v>
@@ -2340,26 +2715,38 @@
         <v>42597</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="4"/>
+      <c r="J29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N29" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="21">
+    <row r="30" spans="1:20" ht="16.5">
+      <c r="A30" s="20">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>58</v>
@@ -2377,29 +2764,41 @@
         <v>42597</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
+      <c r="J30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N30" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="33" x14ac:dyDescent="0.15">
-      <c r="A31" s="21">
+    <row r="31" spans="1:20" ht="33">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>50</v>
@@ -2414,29 +2813,41 @@
         <v>42597</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="4"/>
+      <c r="J31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N31" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="21">
+    <row r="32" spans="1:20" ht="27">
+      <c r="A32" s="20">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>50</v>
@@ -2451,26 +2862,38 @@
         <v>42597</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="4"/>
+      <c r="J32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N32" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="21">
+    <row r="33" spans="1:19" ht="16.5">
+      <c r="A33" s="20">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>62</v>
@@ -2488,18 +2911,30 @@
         <v>42597</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="4"/>
+      <c r="J33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N33" s="13">
+        <v>42606</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -2520,7 +2955,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -2541,7 +2976,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -2562,7 +2997,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -2583,7 +3018,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -2604,7 +3039,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -2625,7 +3060,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2646,7 +3081,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2667,7 +3102,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2688,7 +3123,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2709,7 +3144,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2730,7 +3165,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2751,7 +3186,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2772,7 +3207,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2793,7 +3228,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2814,7 +3249,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2835,7 +3270,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2856,7 +3291,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2877,7 +3312,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2898,7 +3333,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2919,7 +3354,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2940,7 +3375,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2961,7 +3396,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2982,7 +3417,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -3003,7 +3438,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -3024,7 +3459,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -3045,7 +3480,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -3066,7 +3501,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -3087,7 +3522,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -3108,7 +3543,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -3129,7 +3564,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -3150,7 +3585,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -3171,7 +3606,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -3192,7 +3627,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -3213,7 +3648,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -3234,7 +3669,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -3255,7 +3690,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3276,7 +3711,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3297,7 +3732,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3318,7 +3753,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3339,7 +3774,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3360,7 +3795,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3381,7 +3816,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3402,7 +3837,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3423,7 +3858,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3444,7 +3879,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3465,7 +3900,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3486,7 +3921,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3507,7 +3942,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3528,7 +3963,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3549,7 +3984,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3570,7 +4005,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3591,7 +4026,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3612,7 +4047,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3633,7 +4068,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3654,7 +4089,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3675,7 +4110,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3696,7 +4131,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3717,7 +4152,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3738,7 +4173,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3759,7 +4194,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3780,7 +4215,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3801,7 +4236,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3822,7 +4257,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3843,7 +4278,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3864,7 +4299,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3885,7 +4320,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3906,7 +4341,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3927,7 +4362,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3948,7 +4383,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3969,7 +4404,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3990,7 +4425,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -4011,7 +4446,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -4032,7 +4467,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -4053,7 +4488,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -4074,7 +4509,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -4095,7 +4530,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -4116,7 +4551,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -4137,7 +4572,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -4158,7 +4593,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -4179,7 +4614,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -4200,7 +4635,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -4221,7 +4656,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -4242,7 +4677,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -4263,7 +4698,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -4284,7 +4719,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -4305,7 +4740,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -4326,7 +4761,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -4347,7 +4782,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -4368,7 +4803,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -4389,7 +4824,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -4410,7 +4845,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -4431,7 +4866,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -4452,7 +4887,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -4473,7 +4908,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -4494,7 +4929,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -4515,7 +4950,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -4536,7 +4971,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -4557,7 +4992,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -4578,7 +5013,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -4599,7 +5034,7 @@
       <c r="R133" s="7"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -4620,7 +5055,7 @@
       <c r="R134" s="7"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -4641,7 +5076,7 @@
       <c r="R135" s="7"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -4662,7 +5097,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -4683,7 +5118,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -4704,7 +5139,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -4725,7 +5160,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -4746,7 +5181,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -4767,7 +5202,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4788,7 +5223,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4809,7 +5244,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -4830,7 +5265,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -4851,7 +5286,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -4872,7 +5307,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -4893,7 +5328,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -4911,7 +5346,7 @@
       <c r="O148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -4929,7 +5364,7 @@
       <c r="O149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -4947,7 +5382,7 @@
       <c r="O150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -4965,7 +5400,7 @@
       <c r="O151" s="4"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -4983,7 +5418,7 @@
       <c r="O152" s="4"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="7"/>
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
@@ -5001,7 +5436,7 @@
       <c r="O153" s="4"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="7"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
@@ -5019,7 +5454,7 @@
       <c r="O154" s="4"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="7"/>
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
@@ -5037,7 +5472,7 @@
       <c r="O155" s="4"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="7"/>
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
@@ -5055,7 +5490,7 @@
       <c r="O156" s="4"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="7"/>
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
@@ -5073,7 +5508,7 @@
       <c r="O157" s="4"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="7"/>
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
@@ -5091,7 +5526,7 @@
       <c r="O158" s="4"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="7"/>
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
@@ -5109,7 +5544,7 @@
       <c r="O159" s="4"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="7"/>
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
@@ -5127,7 +5562,7 @@
       <c r="O160" s="4"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="7"/>
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
@@ -5145,7 +5580,7 @@
       <c r="O161" s="4"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="7"/>
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
@@ -5163,7 +5598,7 @@
       <c r="O162" s="4"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="7"/>
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
@@ -5181,7 +5616,7 @@
       <c r="O163" s="4"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="7"/>
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
@@ -5199,7 +5634,7 @@
       <c r="O164" s="4"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="7"/>
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
@@ -5217,7 +5652,7 @@
       <c r="O165" s="4"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="7"/>
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
@@ -5235,7 +5670,7 @@
       <c r="O166" s="4"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="7"/>
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
@@ -5253,7 +5688,7 @@
       <c r="O167" s="4"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="7"/>
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
@@ -5271,7 +5706,7 @@
       <c r="O168" s="4"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="7"/>
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
@@ -5289,7 +5724,7 @@
       <c r="O169" s="4"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="7"/>
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
@@ -5307,7 +5742,7 @@
       <c r="O170" s="4"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="7"/>
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
@@ -5325,7 +5760,7 @@
       <c r="O171" s="4"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="7"/>
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
@@ -5343,7 +5778,7 @@
       <c r="O172" s="4"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="7"/>
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
@@ -5361,7 +5796,7 @@
       <c r="O173" s="4"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
@@ -5379,7 +5814,7 @@
       <c r="O174" s="4"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
@@ -5397,7 +5832,7 @@
       <c r="O175" s="4"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="7"/>
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
@@ -5415,7 +5850,7 @@
       <c r="O176" s="4"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
@@ -5433,7 +5868,7 @@
       <c r="O177" s="4"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
@@ -5451,7 +5886,7 @@
       <c r="O178" s="4"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
@@ -5469,7 +5904,7 @@
       <c r="O179" s="4"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
@@ -5487,7 +5922,7 @@
       <c r="O180" s="4"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
@@ -5505,7 +5940,7 @@
       <c r="O181" s="4"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="7"/>
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
@@ -5531,197 +5966,197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9" s="30" customFormat="1" ht="16.5">
+      <c r="A3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="23"/>
+      <c r="B4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5741,14 +6176,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5759,211 +6194,211 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+    <row r="2" spans="1:8" s="2" customFormat="1">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -5977,27 +6412,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="7" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="38" customWidth="1"/>
-    <col min="5" max="5" width="35" style="38" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="39" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="7" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="37" customWidth="1"/>
+    <col min="5" max="5" width="35" style="37" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="38" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="40" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="39" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="40" customWidth="1"/>
+    <col min="12" max="12" width="9" style="39" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -6820,234 +7255,234 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-    </row>
-    <row r="3" spans="1:13" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" s="30" customFormat="1" ht="16.5">
+      <c r="A3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="31" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34" t="s">
+    <row r="4" spans="1:13" s="30" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="36"/>
-    </row>
-    <row r="6" spans="1:13" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="1:13" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" spans="1:13" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="1:13" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-    </row>
-    <row r="11" spans="1:13" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="1:13" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="1:13" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" s="30" customFormat="1" ht="16.5">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" s="30" customFormat="1" ht="16.5">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:13" s="30" customFormat="1" ht="16.5">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="1:13" s="30" customFormat="1" ht="16.5">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="1:13" s="30" customFormat="1" ht="16.5">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:13" s="30" customFormat="1" ht="16.5">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:13" s="30" customFormat="1" ht="16.5">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:13" s="30" customFormat="1" ht="16.5">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:13" s="30" customFormat="1" ht="16.5">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_EQ组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="133">
   <si>
     <t>No</t>
   </si>
@@ -383,10 +388,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>优化了心愿菜单中波胆记录列表的显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>优化了租客APP首页的UI界面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -435,6 +436,78 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>周蓉、吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了当租客密码进行修改或重置时，会短信通知用户的功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛冠宙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龙国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了心愿菜单中拨打记录列表的显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛冠宙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙义全</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>周蓉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -443,7 +516,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EQ组</t>
+    <t>周蓉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -451,59 +524,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>李健</t>
+    <t>移动组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>周云</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加了当租客密码进行修改或重置时，会短信通知用户的功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛冠宙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱彤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王龙国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷传盛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪林强</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙义全</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -763,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,9 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1257,42 +1295,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P33" sqref="P33"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="15" style="18" customWidth="1"/>
-    <col min="4" max="4" width="25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="19" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="10" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="14.375" style="19" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="19" customWidth="1"/>
-    <col min="16" max="16" width="12" style="21" customWidth="1"/>
-    <col min="17" max="17" width="17" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="18" customWidth="1"/>
+    <col min="16" max="16" width="12" style="20" customWidth="1"/>
+    <col min="17" max="17" width="17" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.75" style="18" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1351,1595 +1389,1599 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:20" s="10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>42597</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>42597</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="10"/>
-    </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A3" s="20">
+      <c r="M2" s="13"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>42597</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>42597</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>42606</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>123</v>
+      <c r="O3" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="10"/>
-    </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="20">
+      <c r="S3" s="16"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>42597</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>42597</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="14" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="13">
+      <c r="M4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="12">
         <v>42606</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>123</v>
+      <c r="O4" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="10"/>
-    </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A5" s="20">
+      <c r="S4" s="16"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>42597</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>42597</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>42606</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>123</v>
+      <c r="O5" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A6" s="20">
+      <c r="S5" s="16"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>42597</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>42597</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" s="13">
+      <c r="K6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="12">
         <v>42606</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>123</v>
+      <c r="O6" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="33">
-      <c r="A7" s="20">
+      <c r="S6" s="16"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>42597</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>42597</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N7" s="13">
+      <c r="K7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" s="12">
         <v>42606</v>
       </c>
-      <c r="O7" s="14" t="s">
-        <v>123</v>
+      <c r="O7" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="33">
-      <c r="A8" s="20">
+      <c r="S7" s="16"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>42597</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>42597</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="12" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <v>42606</v>
       </c>
-      <c r="O8" s="14" t="s">
-        <v>123</v>
+      <c r="O8" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A9" s="20">
+      <c r="S8" s="16"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>42597</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>42597</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N9" s="13">
+      <c r="I9" s="11"/>
+      <c r="J9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" s="12">
         <v>42606</v>
       </c>
-      <c r="O9" s="14" t="s">
-        <v>123</v>
+      <c r="O9" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A10" s="20">
+      <c r="S9" s="16"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>42597</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>42597</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N10" s="13">
+      <c r="K10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="12">
         <v>42606</v>
       </c>
-      <c r="O10" s="14" t="s">
-        <v>123</v>
+      <c r="O10" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A11" s="20">
+      <c r="S10" s="16"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>42597</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>42597</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N11" s="13">
+      <c r="K11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" s="12">
         <v>42606</v>
       </c>
-      <c r="O11" s="14" t="s">
-        <v>123</v>
+      <c r="O11" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A12" s="20">
+      <c r="S11" s="16"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>42597</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>42597</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N12" s="13">
+      <c r="I12" s="11"/>
+      <c r="J12" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="12">
         <v>42606</v>
       </c>
-      <c r="O12" s="14" t="s">
-        <v>123</v>
+      <c r="O12" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A13" s="20">
+      <c r="S12" s="16"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>42597</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>42597</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <v>42606</v>
       </c>
-      <c r="O13" s="14" t="s">
-        <v>123</v>
+      <c r="O13" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="33">
-      <c r="A14" s="20">
+      <c r="S13" s="16"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>42597</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>42597</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N14" s="13">
+      <c r="I14" s="11"/>
+      <c r="J14" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="12">
         <v>42606</v>
       </c>
-      <c r="O14" s="14" t="s">
-        <v>123</v>
+      <c r="O14" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="33">
-      <c r="A15" s="20">
+      <c r="S14" s="16"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>42597</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <v>42597</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N15" s="13">
+      <c r="I15" s="11"/>
+      <c r="J15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="12">
         <v>42606</v>
       </c>
-      <c r="O15" s="14" t="s">
-        <v>123</v>
+      <c r="O15" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="10"/>
-    </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A16" s="20">
+      <c r="S15" s="16"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>42597</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>42597</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="14" t="s">
+      <c r="I16" s="11"/>
+      <c r="J16" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="12">
+        <v>42606</v>
+      </c>
+      <c r="O16" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N16" s="13">
-        <v>42606</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A17" s="20">
+      <c r="S16" s="16"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>42597</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>42597</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17" s="13">
+      <c r="I17" s="11"/>
+      <c r="J17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" s="12">
         <v>42606</v>
       </c>
-      <c r="O17" s="14" t="s">
-        <v>123</v>
+      <c r="O17" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A18" s="20">
+      <c r="S17" s="16"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>42597</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>42597</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="14" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="12">
+        <v>42606</v>
+      </c>
+      <c r="O18" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N18" s="13">
-        <v>42606</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="10"/>
-    </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A19" s="20">
+      <c r="S18" s="16"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>42597</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>42597</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="14" t="s">
+      <c r="I19" s="11"/>
+      <c r="J19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="12">
+        <v>42606</v>
+      </c>
+      <c r="O19" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N19" s="13">
-        <v>42606</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="10"/>
-    </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A20" s="20">
+      <c r="S19" s="16"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>42597</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>42597</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="12" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M20" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <v>42606</v>
       </c>
-      <c r="O20" s="14" t="s">
-        <v>123</v>
+      <c r="O20" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="10"/>
-    </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A21" s="20">
+      <c r="S20" s="16"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>42597</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>42597</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" s="14" t="s">
+      <c r="I21" s="11"/>
+      <c r="J21" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="N21" s="13">
+      <c r="M21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" s="12">
         <v>42606</v>
       </c>
-      <c r="O21" s="14" t="s">
-        <v>123</v>
+      <c r="O21" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="10"/>
-    </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A22" s="20">
+      <c r="S21" s="16"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>42597</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>42597</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" s="12" t="s">
+      <c r="I22" s="11"/>
+      <c r="J22" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M22" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N22" s="13">
+      <c r="N22" s="12">
         <v>42606</v>
       </c>
-      <c r="O22" s="14" t="s">
-        <v>123</v>
+      <c r="O22" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="10"/>
-    </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="33">
-      <c r="A23" s="20">
+      <c r="S22" s="16"/>
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" spans="1:20" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>42597</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>42597</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" s="12" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M23" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N23" s="13">
+      <c r="N23" s="12">
         <v>42606</v>
       </c>
-      <c r="O23" s="14" t="s">
-        <v>123</v>
+      <c r="O23" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A24" s="20">
+      <c r="S23" s="16"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>42597</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <v>42597</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N24" s="13">
+      <c r="I24" s="11"/>
+      <c r="J24" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N24" s="12">
         <v>42606</v>
       </c>
-      <c r="O24" s="14" t="s">
-        <v>123</v>
+      <c r="O24" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="10"/>
-    </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A25" s="20">
+      <c r="S24" s="16"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>42597</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>42597</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N25" s="13">
+      <c r="I25" s="14"/>
+      <c r="J25" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" s="12">
         <v>42606</v>
       </c>
-      <c r="O25" s="14" t="s">
-        <v>123</v>
+      <c r="O25" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="10"/>
-    </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A26" s="20">
+      <c r="S25" s="15"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>42597</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <v>42597</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N26" s="13">
+      <c r="I26" s="14"/>
+      <c r="J26" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N26" s="12">
         <v>42606</v>
       </c>
-      <c r="O26" s="14" t="s">
-        <v>123</v>
+      <c r="O26" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="1:20" ht="16.5">
-      <c r="A27" s="20">
+      <c r="S26" s="15"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>42597</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <v>42597</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N27" s="13">
+      <c r="J27" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N27" s="12">
         <v>42606</v>
       </c>
-      <c r="O27" s="14" t="s">
-        <v>123</v>
+      <c r="O27" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="31.5" customHeight="1">
-      <c r="A28" s="20">
+    <row r="28" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>42597</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <v>42597</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="J28" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N28" s="13">
+      <c r="N28" s="12">
         <v>42606</v>
       </c>
-      <c r="O28" s="14" t="s">
-        <v>123</v>
+      <c r="O28" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="30" customHeight="1">
-      <c r="A29" s="20">
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>42597</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <v>42597</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N29" s="13">
+      <c r="J29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" s="12">
         <v>42606</v>
       </c>
-      <c r="O29" s="14" t="s">
-        <v>123</v>
+      <c r="O29" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5">
-      <c r="A30" s="20">
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>42597</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="12">
         <v>42597</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="J30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N30" s="13">
+      <c r="N30" s="12">
         <v>42606</v>
       </c>
-      <c r="O30" s="14" t="s">
-        <v>123</v>
+      <c r="O30" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="33">
-      <c r="A31" s="20">
+    <row r="31" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>42597</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="12">
         <v>42597</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="J31" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N31" s="13">
+      <c r="N31" s="12">
         <v>42606</v>
       </c>
-      <c r="O31" s="14" t="s">
-        <v>123</v>
+      <c r="O31" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:20" ht="27">
-      <c r="A32" s="20">
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="12" t="s">
+      <c r="D32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <v>42597</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <v>42597</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N32" s="13">
+      <c r="J32" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N32" s="12">
         <v>42606</v>
       </c>
-      <c r="O32" s="14" t="s">
-        <v>123</v>
+      <c r="O32" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5">
-      <c r="A33" s="20">
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>42597</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <v>42597</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L33" s="7" t="s">
+      <c r="J33" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M33" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N33" s="13">
+      <c r="L33" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N33" s="12">
         <v>42606</v>
       </c>
-      <c r="O33" s="14" t="s">
-        <v>123</v>
+      <c r="O33" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5">
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="5"/>
       <c r="G34" s="7"/>
       <c r="H34" s="5"/>
@@ -2955,12 +2997,12 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5">
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="5"/>
       <c r="G35" s="7"/>
       <c r="H35" s="5"/>
@@ -2976,12 +3018,12 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5">
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="5"/>
       <c r="G36" s="7"/>
       <c r="H36" s="5"/>
@@ -2997,12 +3039,12 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5">
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="5"/>
       <c r="G37" s="7"/>
       <c r="H37" s="5"/>
@@ -3018,12 +3060,12 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5">
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="5"/>
       <c r="G38" s="7"/>
       <c r="H38" s="5"/>
@@ -3039,12 +3081,12 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="5"/>
       <c r="G39" s="7"/>
       <c r="H39" s="5"/>
@@ -3060,12 +3102,12 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5">
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="5"/>
       <c r="G40" s="7"/>
       <c r="H40" s="5"/>
@@ -3081,12 +3123,12 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5">
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="5"/>
       <c r="G41" s="7"/>
       <c r="H41" s="5"/>
@@ -3102,12 +3144,12 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="5"/>
       <c r="G42" s="7"/>
       <c r="H42" s="5"/>
@@ -3123,12 +3165,12 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5">
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="5"/>
       <c r="G43" s="7"/>
       <c r="H43" s="5"/>
@@ -3144,12 +3186,12 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5">
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="5"/>
       <c r="G44" s="7"/>
       <c r="H44" s="5"/>
@@ -3165,12 +3207,12 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5">
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="5"/>
       <c r="G45" s="7"/>
       <c r="H45" s="5"/>
@@ -3186,12 +3228,12 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5">
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="5"/>
       <c r="G46" s="7"/>
       <c r="H46" s="5"/>
@@ -3207,12 +3249,12 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5">
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="5"/>
       <c r="G47" s="7"/>
       <c r="H47" s="5"/>
@@ -3228,12 +3270,12 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5">
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="5"/>
       <c r="G48" s="7"/>
       <c r="H48" s="5"/>
@@ -3249,12 +3291,12 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="5"/>
       <c r="G49" s="7"/>
       <c r="H49" s="5"/>
@@ -3270,12 +3312,12 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="5"/>
       <c r="G50" s="7"/>
       <c r="H50" s="5"/>
@@ -3291,12 +3333,12 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="5"/>
       <c r="G51" s="7"/>
       <c r="H51" s="5"/>
@@ -3312,12 +3354,12 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="5"/>
       <c r="G52" s="7"/>
       <c r="H52" s="5"/>
@@ -3333,12 +3375,12 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="5"/>
       <c r="G53" s="7"/>
       <c r="H53" s="5"/>
@@ -3354,12 +3396,12 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="5"/>
       <c r="G54" s="7"/>
       <c r="H54" s="5"/>
@@ -3375,12 +3417,12 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="5"/>
       <c r="G55" s="7"/>
       <c r="H55" s="5"/>
@@ -3396,12 +3438,12 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="5"/>
       <c r="G56" s="7"/>
       <c r="H56" s="5"/>
@@ -3417,12 +3459,12 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="5"/>
       <c r="G57" s="7"/>
       <c r="H57" s="5"/>
@@ -3438,12 +3480,12 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="5"/>
       <c r="G58" s="7"/>
       <c r="H58" s="5"/>
@@ -3459,12 +3501,12 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="5"/>
       <c r="G59" s="7"/>
       <c r="H59" s="5"/>
@@ -3480,12 +3522,12 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="5"/>
       <c r="G60" s="7"/>
       <c r="H60" s="5"/>
@@ -3501,12 +3543,12 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="5"/>
       <c r="G61" s="7"/>
       <c r="H61" s="5"/>
@@ -3522,12 +3564,12 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="5"/>
       <c r="G62" s="7"/>
       <c r="H62" s="5"/>
@@ -3543,12 +3585,12 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="5"/>
       <c r="G63" s="7"/>
       <c r="H63" s="5"/>
@@ -3564,12 +3606,12 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="5"/>
       <c r="G64" s="7"/>
       <c r="H64" s="5"/>
@@ -3585,12 +3627,12 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="5"/>
       <c r="G65" s="7"/>
       <c r="H65" s="5"/>
@@ -3606,12 +3648,12 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="5"/>
       <c r="G66" s="7"/>
       <c r="H66" s="5"/>
@@ -3627,12 +3669,12 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="5"/>
       <c r="G67" s="7"/>
       <c r="H67" s="5"/>
@@ -3648,12 +3690,12 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="5"/>
       <c r="G68" s="7"/>
       <c r="H68" s="5"/>
@@ -3669,12 +3711,12 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="5"/>
       <c r="G69" s="7"/>
       <c r="H69" s="5"/>
@@ -3690,12 +3732,12 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="5"/>
       <c r="G70" s="7"/>
       <c r="H70" s="5"/>
@@ -3711,12 +3753,12 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="5"/>
       <c r="G71" s="7"/>
       <c r="H71" s="5"/>
@@ -3732,12 +3774,12 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="5"/>
       <c r="G72" s="7"/>
       <c r="H72" s="5"/>
@@ -3753,12 +3795,12 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="5"/>
       <c r="G73" s="7"/>
       <c r="H73" s="5"/>
@@ -3774,12 +3816,12 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="5"/>
       <c r="G74" s="7"/>
       <c r="H74" s="5"/>
@@ -3795,12 +3837,12 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="5"/>
       <c r="G75" s="7"/>
       <c r="H75" s="5"/>
@@ -3816,12 +3858,12 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="5"/>
       <c r="G76" s="7"/>
       <c r="H76" s="5"/>
@@ -3837,12 +3879,12 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="5"/>
       <c r="G77" s="7"/>
       <c r="H77" s="5"/>
@@ -3858,12 +3900,12 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
       <c r="F78" s="5"/>
       <c r="G78" s="7"/>
       <c r="H78" s="5"/>
@@ -3879,12 +3921,12 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="5"/>
       <c r="G79" s="7"/>
       <c r="H79" s="5"/>
@@ -3900,12 +3942,12 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="5"/>
       <c r="G80" s="7"/>
       <c r="H80" s="5"/>
@@ -3921,12 +3963,12 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="5"/>
       <c r="G81" s="7"/>
       <c r="H81" s="5"/>
@@ -3942,11 +3984,11 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="12"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="7"/>
       <c r="F82" s="5"/>
       <c r="G82" s="7"/>
@@ -3963,11 +4005,11 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="12"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="7"/>
       <c r="F83" s="5"/>
       <c r="G83" s="7"/>
@@ -3984,11 +4026,11 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="12"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="7"/>
       <c r="F84" s="5"/>
       <c r="G84" s="7"/>
@@ -4005,11 +4047,11 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="12"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="7"/>
       <c r="F85" s="5"/>
       <c r="G85" s="7"/>
@@ -4026,11 +4068,11 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="12"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="7"/>
       <c r="F86" s="5"/>
       <c r="G86" s="7"/>
@@ -4047,11 +4089,11 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="12"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="7"/>
       <c r="F87" s="5"/>
       <c r="G87" s="7"/>
@@ -4068,7 +4110,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -4089,7 +4131,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -4110,7 +4152,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -4131,7 +4173,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -4152,7 +4194,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -4173,7 +4215,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -4194,7 +4236,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -4215,7 +4257,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -4236,7 +4278,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -4257,7 +4299,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -4278,7 +4320,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -4299,7 +4341,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -4320,7 +4362,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -4341,7 +4383,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -4362,7 +4404,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -4383,7 +4425,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -4404,7 +4446,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -4425,7 +4467,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -4446,7 +4488,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -4467,7 +4509,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -4488,7 +4530,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -4509,7 +4551,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -4530,7 +4572,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -4551,7 +4593,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -4572,7 +4614,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -4593,7 +4635,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -4614,7 +4656,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -4635,7 +4677,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -4656,7 +4698,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -4677,7 +4719,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -4698,7 +4740,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -4719,7 +4761,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -4740,7 +4782,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -4761,7 +4803,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -4782,7 +4824,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -4803,7 +4845,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -4824,7 +4866,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -4845,7 +4887,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -4866,7 +4908,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -4887,7 +4929,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -4908,7 +4950,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -4929,7 +4971,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -4950,7 +4992,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -4971,7 +5013,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -4992,7 +5034,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -5013,7 +5055,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -5034,7 +5076,7 @@
       <c r="R133" s="7"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -5055,7 +5097,7 @@
       <c r="R134" s="7"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -5076,7 +5118,7 @@
       <c r="R135" s="7"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -5097,7 +5139,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -5118,7 +5160,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -5139,7 +5181,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -5160,7 +5202,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -5181,7 +5223,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -5202,7 +5244,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -5223,7 +5265,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -5244,7 +5286,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -5265,7 +5307,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -5286,7 +5328,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -5307,7 +5349,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -5328,7 +5370,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -5346,7 +5388,7 @@
       <c r="O148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -5364,7 +5406,7 @@
       <c r="O149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -5382,7 +5424,7 @@
       <c r="O150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -5400,7 +5442,7 @@
       <c r="O151" s="4"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -5418,7 +5460,7 @@
       <c r="O152" s="4"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
@@ -5436,7 +5478,7 @@
       <c r="O153" s="4"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
@@ -5454,7 +5496,7 @@
       <c r="O154" s="4"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="7"/>
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
@@ -5472,7 +5514,7 @@
       <c r="O155" s="4"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="7"/>
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
@@ -5490,7 +5532,7 @@
       <c r="O156" s="4"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
@@ -5508,7 +5550,7 @@
       <c r="O157" s="4"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
@@ -5526,7 +5568,7 @@
       <c r="O158" s="4"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
@@ -5544,7 +5586,7 @@
       <c r="O159" s="4"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
@@ -5562,7 +5604,7 @@
       <c r="O160" s="4"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
@@ -5580,7 +5622,7 @@
       <c r="O161" s="4"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
@@ -5598,7 +5640,7 @@
       <c r="O162" s="4"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="7"/>
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
@@ -5616,7 +5658,7 @@
       <c r="O163" s="4"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
@@ -5634,7 +5676,7 @@
       <c r="O164" s="4"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
@@ -5652,7 +5694,7 @@
       <c r="O165" s="4"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="7"/>
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
@@ -5670,7 +5712,7 @@
       <c r="O166" s="4"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="7"/>
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
@@ -5688,7 +5730,7 @@
       <c r="O167" s="4"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="7"/>
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
@@ -5706,7 +5748,7 @@
       <c r="O168" s="4"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="7"/>
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
@@ -5724,7 +5766,7 @@
       <c r="O169" s="4"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="7"/>
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
@@ -5742,7 +5784,7 @@
       <c r="O170" s="4"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="7"/>
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
@@ -5760,7 +5802,7 @@
       <c r="O171" s="4"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="7"/>
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
@@ -5778,7 +5820,7 @@
       <c r="O172" s="4"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="7"/>
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
@@ -5796,7 +5838,7 @@
       <c r="O173" s="4"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
@@ -5814,7 +5856,7 @@
       <c r="O174" s="4"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
@@ -5832,7 +5874,7 @@
       <c r="O175" s="4"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="7"/>
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
@@ -5850,7 +5892,7 @@
       <c r="O176" s="4"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
@@ -5868,7 +5910,7 @@
       <c r="O177" s="4"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
@@ -5886,7 +5928,7 @@
       <c r="O178" s="4"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
@@ -5904,7 +5946,7 @@
       <c r="O179" s="4"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
@@ -5922,7 +5964,7 @@
       <c r="O180" s="4"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
@@ -5940,7 +5982,7 @@
       <c r="O181" s="4"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="7"/>
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
@@ -5966,197 +6008,197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
-    </row>
-    <row r="3" spans="1:9" s="30" customFormat="1" ht="16.5">
-      <c r="A3" s="28" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="23"/>
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6176,14 +6218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -6194,211 +6236,211 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -6412,27 +6454,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="7" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="37" customWidth="1"/>
-    <col min="5" max="5" width="35" style="37" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="7" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="36" customWidth="1"/>
+    <col min="5" max="5" width="35" style="36" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="37" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="39" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="39" customWidth="1"/>
+    <col min="12" max="12" width="9" style="38" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -7255,234 +7297,234 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="44"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-    </row>
-    <row r="3" spans="1:13" s="30" customFormat="1" ht="16.5">
-      <c r="A3" s="28" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="30" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="1:13" s="29" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="35"/>
-    </row>
-    <row r="5" spans="1:13" s="30" customFormat="1" ht="16.5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="35"/>
-    </row>
-    <row r="6" spans="1:13" s="30" customFormat="1" ht="16.5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="35"/>
-    </row>
-    <row r="7" spans="1:13" s="30" customFormat="1" ht="16.5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-    </row>
-    <row r="8" spans="1:13" s="30" customFormat="1" ht="16.5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="9" spans="1:13" s="30" customFormat="1" ht="16.5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="1:13" s="30" customFormat="1" ht="16.5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="1:13" s="30" customFormat="1" ht="16.5">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-    </row>
-    <row r="12" spans="1:13" s="30" customFormat="1" ht="16.5">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-    </row>
-    <row r="13" spans="1:13" s="30" customFormat="1" ht="16.5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:13" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="1:13" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="1:13" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="1:13" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="1:13" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" spans="1:13" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_EQ组.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="135">
   <si>
     <t>No</t>
   </si>
@@ -512,31 +512,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了品牌验证插件-极验的加载使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>周蓉、吴永余</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪林强</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周云</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1302,7 +1310,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2560,7 +2568,7 @@
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K25" s="11" t="s">
         <v>108</v>
@@ -2660,7 +2668,7 @@
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>108</v>
@@ -2709,7 +2717,7 @@
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K28" s="11" t="s">
         <v>108</v>
@@ -2758,7 +2766,7 @@
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>108</v>
@@ -2807,7 +2815,7 @@
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>108</v>
@@ -2856,7 +2864,7 @@
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K31" s="11" t="s">
         <v>108</v>
@@ -2911,7 +2919,7 @@
         <v>108</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>106</v>
@@ -2954,13 +2962,13 @@
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>108</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M33" s="13" t="s">
         <v>106</v>
@@ -2977,21 +2985,49 @@
       <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="5"/>
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="12">
+        <v>42604</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="12">
+        <v>42604</v>
+      </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="4"/>
+      <c r="J34" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N34" s="12">
+        <v>42611</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
